--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_20_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_20_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>481089.6332646939</v>
+        <v>572993.6190112255</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8088944.869226764</v>
+        <v>8547013.059513934</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8722880.896883903</v>
+        <v>8506890.903312847</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166639</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>178.8948621820417</v>
+        <v>165.1725371760949</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>135.1960163205682</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846314</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="V3" t="n">
-        <v>165.1725371760943</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663203</v>
       </c>
     </row>
     <row r="4">
@@ -838,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20.00402729331256</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>52.21594625443403</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>39.70122005611973</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="F5" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="G5" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="H5" t="n">
-        <v>187.5255871663199</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -975,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>53.6140342347351</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>72.43289562846314</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1069,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>52.2159462544348</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>188.612335018101</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>39.70122005612006</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708302</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,22 +1214,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>40.58439354511647</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721433</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>175.4774454331882</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1291,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>50.39731398664522</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>52.21594625443465</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>272.6757250332589</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>235.9375844494523</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1449,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883145</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
         <v>225.7871683969286</v>
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>146.8428862394535</v>
       </c>
       <c r="E13" t="n">
-        <v>113.4448687040857</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1610,16 +1612,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>186.8250998946398</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>280.2361184978853</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>14.57567088453339</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>83.98177170601701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,19 +1852,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>287.0552003724785</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>230.1984816395451</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1923,7 +1925,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1938,7 +1940,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
         <v>18.81721868247742</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>19.31343248649855</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>61.36917500887013</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2084,16 +2086,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>97.80685860554341</v>
+        <v>30.94422611183006</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>58.28185552386306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>134.7466378365499</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2330,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>408.6659743001531</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>16.32203054610746</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0014084920598</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>184.3755225607023</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>117.0340619339624</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>14.71655084342929</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>73.08937855085976</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>150.3013276789174</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>372.4874428003272</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,10 +2845,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2855,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>381.5245088879228</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>106.4735778903241</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2965,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>81.46084344268475</v>
       </c>
     </row>
     <row r="32">
@@ -3035,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>252.9985976639363</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,22 +3082,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>227.7172236952942</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247723</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>81.46084344268475</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.46084344268475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,22 +3271,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3323,16 +3325,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>101.4321183084799</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>102.0660356638782</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3427,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>82.11246327371909</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>98.54405836271886</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,13 +3511,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>348.5324979237037</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3554,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>76.01103075490194</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3712,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>87.62154955555303</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>20.95866062610916</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>225.7512692123555</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3901,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>12.80633068795266</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -3946,10 +3948,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>114.8923160260112</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>6.632494016570779</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4104,7 +4106,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>75.27088892250266</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>81.46084344268475</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>331.1605361513808</v>
+        <v>204.4218319897908</v>
       </c>
       <c r="C2" t="n">
-        <v>331.1605361513808</v>
+        <v>204.4218319897908</v>
       </c>
       <c r="D2" t="n">
-        <v>331.1605361513808</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E2" t="n">
-        <v>331.1605361513808</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513808</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513808</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348963</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.0337116067851</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058976</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644762</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123825</v>
+        <v>509.4952041123838</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985575</v>
+        <v>649.4845259985594</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020256</v>
+        <v>734.4611726020279</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262241</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433421</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="T2" t="n">
-        <v>331.1605361513808</v>
+        <v>583.2614020227611</v>
       </c>
       <c r="U2" t="n">
-        <v>331.1605361513808</v>
+        <v>583.2614020227611</v>
       </c>
       <c r="V2" t="n">
-        <v>331.1605361513808</v>
+        <v>393.8416170062759</v>
       </c>
       <c r="W2" t="n">
-        <v>331.1605361513808</v>
+        <v>393.8416170062759</v>
       </c>
       <c r="X2" t="n">
-        <v>331.1605361513808</v>
+        <v>393.8416170062759</v>
       </c>
       <c r="Y2" t="n">
-        <v>331.1605361513808</v>
+        <v>204.4218319897908</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330557</v>
+        <v>161.5366049464207</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330557</v>
+        <v>161.5366049464207</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330557</v>
+        <v>161.5366049464207</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330557</v>
+        <v>161.5366049464207</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024202</v>
+        <v>67.13418877024228</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.769091114024</v>
+        <v>338.7690911140249</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546593</v>
+        <v>512.5000587546608</v>
       </c>
       <c r="O3" t="n">
-        <v>649.210157847634</v>
+        <v>649.2101578476361</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017052</v>
+        <v>739.5989987017076</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652786</v>
+        <v>676.9378076264295</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652786</v>
+        <v>676.9378076264295</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652786</v>
+        <v>676.9378076264295</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652786</v>
+        <v>487.5180226099444</v>
       </c>
       <c r="V3" t="n">
-        <v>583.2614020227591</v>
+        <v>487.5180226099444</v>
       </c>
       <c r="W3" t="n">
-        <v>393.8416170062745</v>
+        <v>487.5180226099444</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4218319897901</v>
+        <v>487.5180226099444</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330557</v>
+        <v>298.0982375934592</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330557</v>
+        <v>49.45491281910462</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330557</v>
+        <v>49.45491281910462</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330557</v>
+        <v>49.45491281910462</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330557</v>
+        <v>49.45491281910462</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330557</v>
+        <v>49.45491281910462</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330557</v>
+        <v>49.45491281910462</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330557</v>
+        <v>49.45491281910462</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330557</v>
+        <v>49.45491281910462</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330557</v>
+        <v>29.24882464404143</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230162</v>
+        <v>27.03967056230188</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170694</v>
+        <v>42.98993985170739</v>
       </c>
       <c r="N4" t="n">
-        <v>66.418473293963</v>
+        <v>66.41847329396366</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828944</v>
+        <v>49.45491281910462</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828944</v>
+        <v>49.45491281910462</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828944</v>
+        <v>49.45491281910462</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828944</v>
+        <v>49.45491281910462</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330557</v>
+        <v>49.45491281910462</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330557</v>
+        <v>49.45491281910462</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330557</v>
+        <v>49.45491281910462</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330557</v>
+        <v>49.45491281910462</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330557</v>
+        <v>49.45491281910462</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330557</v>
+        <v>49.45491281910462</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="C5" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="D5" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="E5" t="n">
-        <v>710.0001061843504</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="F5" t="n">
-        <v>520.5803211678657</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="G5" t="n">
-        <v>331.1605361513809</v>
+        <v>181.8429936158256</v>
       </c>
       <c r="H5" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J5" t="n">
         <v>21.03371160678489</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644754</v>
+        <v>347.121819064476</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985592</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T5" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="U5" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="V5" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="W5" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="X5" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="Y5" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652808</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.00204697330559</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="C6" t="n">
-        <v>15.00204697330559</v>
+        <v>622.7822174903331</v>
       </c>
       <c r="D6" t="n">
-        <v>15.00204697330559</v>
+        <v>473.8478078290819</v>
       </c>
       <c r="E6" t="n">
-        <v>15.00204697330559</v>
+        <v>314.6103528236264</v>
       </c>
       <c r="F6" t="n">
-        <v>15.00204697330559</v>
+        <v>168.0757948505114</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772649</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P6" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="T6" t="n">
-        <v>583.2614020227597</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="U6" t="n">
-        <v>393.841617006275</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="V6" t="n">
-        <v>204.4218319897903</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="W6" t="n">
-        <v>15.00204697330559</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="X6" t="n">
-        <v>15.00204697330559</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.00204697330559</v>
+        <v>676.9378076264292</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="C7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="D7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="E7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="F7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="G7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230187</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170739</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396366</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="W7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="X7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1447.25760758527</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="C8" t="n">
-        <v>1447.25760758527</v>
+        <v>560.6825636487955</v>
       </c>
       <c r="D8" t="n">
-        <v>1447.25760758527</v>
+        <v>560.6825636487955</v>
       </c>
       <c r="E8" t="n">
-        <v>1256.740097465976</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="F8" t="n">
-        <v>845.7541926763688</v>
+        <v>331.1605361513812</v>
       </c>
       <c r="G8" t="n">
-        <v>429.723147379776</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947426</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711872</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>509.4952041123835</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985591</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="V8" t="n">
-        <v>1837.396939561082</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.396939561082</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="X8" t="n">
-        <v>1837.396939561082</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="Y8" t="n">
-        <v>1447.25760758527</v>
+        <v>750.1023486652805</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>298.0620184747154</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="C9" t="n">
-        <v>298.0620184747154</v>
+        <v>709.1080117510214</v>
       </c>
       <c r="D9" t="n">
-        <v>298.0620184747154</v>
+        <v>560.1736020897702</v>
       </c>
       <c r="E9" t="n">
-        <v>138.8245634692599</v>
+        <v>400.9361470843146</v>
       </c>
       <c r="F9" t="n">
-        <v>138.8245634692599</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="G9" t="n">
-        <v>138.8245634692599</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562314</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104394</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789486</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689046</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333486</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474382</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T9" t="n">
-        <v>1400.563316948358</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="U9" t="n">
-        <v>1172.461727081622</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="V9" t="n">
-        <v>937.3096188498791</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="W9" t="n">
-        <v>683.0722621216776</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="X9" t="n">
-        <v>505.8223172396693</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="Y9" t="n">
-        <v>298.0620184747154</v>
+        <v>750.1023486652805</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>411.1248508126812</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="C10" t="n">
-        <v>242.1886678847743</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="D10" t="n">
-        <v>242.1886678847743</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="E10" t="n">
-        <v>94.27557430238116</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="F10" t="n">
-        <v>94.27557430238116</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="G10" t="n">
-        <v>94.27557430238116</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="H10" t="n">
-        <v>94.27557430238116</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981519</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927331</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377459</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033657</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P10" t="n">
-        <v>520.289347040599</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.289347040599</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R10" t="n">
-        <v>411.1248508126812</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S10" t="n">
-        <v>411.1248508126812</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T10" t="n">
-        <v>411.1248508126812</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U10" t="n">
-        <v>411.1248508126812</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V10" t="n">
-        <v>411.1248508126812</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W10" t="n">
-        <v>411.1248508126812</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="X10" t="n">
-        <v>411.1248508126812</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Y10" t="n">
-        <v>411.1248508126812</v>
+        <v>67.74542702829011</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1976.204921733553</v>
+        <v>1032.06112435253</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>663.0986074121181</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>304.8329088053676</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5051,16 +5053,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
         <v>3325.60582160917</v>
@@ -5069,22 +5071,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V11" t="n">
-        <v>2994.542934265599</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W11" t="n">
-        <v>2641.774278995485</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X11" t="n">
-        <v>2641.774278995485</v>
+        <v>1808.800296392463</v>
       </c>
       <c r="Y11" t="n">
-        <v>2251.634947019673</v>
+        <v>1418.660964416651</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
         <v>767.0908251999817</v>
@@ -5109,22 +5111,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,34 +5138,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>739.2385409879452</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="C13" t="n">
-        <v>739.2385409879452</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="D13" t="n">
-        <v>739.2385409879452</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
         <v>624.6477645191717</v>
@@ -5188,61 +5190,61 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2303.170539913434</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C14" t="n">
-        <v>1934.208022973022</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D14" t="n">
-        <v>1575.942324366272</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G14" t="n">
         <v>364.0957168234162</v>
@@ -5276,16 +5278,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5303,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>3042.53903524767</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>2689.770379977556</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>2689.770379977556</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y14" t="n">
-        <v>2689.770379977556</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5348,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>332.773976541745</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="C16" t="n">
-        <v>163.8377936138381</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="D16" t="n">
-        <v>163.8377936138381</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="E16" t="n">
-        <v>163.8377936138381</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
         <v>163.8377936138381</v>
@@ -5434,52 +5436,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R16" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S16" t="n">
-        <v>639.3706644025392</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T16" t="n">
-        <v>417.6040489720652</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="U16" t="n">
-        <v>417.6040489720652</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="V16" t="n">
-        <v>417.6040489720652</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="W16" t="n">
-        <v>417.6040489720652</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="X16" t="n">
-        <v>417.6040489720652</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="Y16" t="n">
-        <v>332.773976541745</v>
+        <v>639.3706644025388</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1632.511388127729</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C17" t="n">
-        <v>1263.548871187317</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D17" t="n">
-        <v>905.2831725805665</v>
+        <v>654.0504646744046</v>
       </c>
       <c r="E17" t="n">
-        <v>519.4949199823222</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F17" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G17" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5537,28 +5539,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V17" t="n">
-        <v>2994.5429342656</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W17" t="n">
-        <v>2641.774278995485</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X17" t="n">
-        <v>2409.250560167662</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y17" t="n">
-        <v>2019.11122819185</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="18">
@@ -5571,25 +5573,25 @@
         <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218342</v>
+        <v>666.202517612298</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218342</v>
+        <v>497.2663346843912</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218342</v>
+        <v>497.2663346843912</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>497.2663346843912</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L19" t="n">
         <v>332.3555681596505</v>
@@ -5695,28 +5697,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R19" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S19" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T19" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U19" t="n">
-        <v>128.5011820977088</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V19" t="n">
-        <v>128.5011820977088</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W19" t="n">
-        <v>66.51211643218342</v>
+        <v>666.202517612298</v>
       </c>
       <c r="X19" t="n">
-        <v>66.51211643218342</v>
+        <v>666.202517612298</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.51211643218342</v>
+        <v>666.202517612298</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2303.170539913434</v>
+        <v>1144.044138553435</v>
       </c>
       <c r="C20" t="n">
-        <v>1934.208022973022</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="D20" t="n">
-        <v>1575.942324366272</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E20" t="n">
-        <v>1190.154071768027</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F20" t="n">
-        <v>779.1681669784198</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G20" t="n">
         <v>364.0957168234162</v>
@@ -5750,10 +5752,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5777,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>3020.833267321127</v>
+        <v>2978.080611468134</v>
       </c>
       <c r="V20" t="n">
-        <v>2689.770379977556</v>
+        <v>2647.017724124563</v>
       </c>
       <c r="W20" t="n">
-        <v>2689.770379977556</v>
+        <v>2294.249068854449</v>
       </c>
       <c r="X20" t="n">
-        <v>2689.770379977556</v>
+        <v>1920.783310593369</v>
       </c>
       <c r="Y20" t="n">
-        <v>2689.770379977556</v>
+        <v>1530.643978617557</v>
       </c>
     </row>
     <row r="21">
@@ -5805,70 +5807,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2787.057062648987</v>
+        <v>3143.957356778931</v>
       </c>
       <c r="C22" t="n">
-        <v>2618.12087972108</v>
+        <v>2975.021173851024</v>
       </c>
       <c r="D22" t="n">
-        <v>2618.12087972108</v>
+        <v>2824.904534438688</v>
       </c>
       <c r="E22" t="n">
-        <v>2618.12087972108</v>
+        <v>2676.991440856295</v>
       </c>
       <c r="F22" t="n">
-        <v>2471.230932223169</v>
+        <v>2530.101493358385</v>
       </c>
       <c r="G22" t="n">
         <v>2471.230932223169</v>
@@ -5950,10 +5952,10 @@
         <v>3325.605821609171</v>
       </c>
       <c r="X22" t="n">
-        <v>3189.498106622756</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="Y22" t="n">
-        <v>2968.705527479226</v>
+        <v>3325.605821609171</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2342.888901953459</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="C23" t="n">
-        <v>1973.926385013048</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D23" t="n">
-        <v>1615.660686406297</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E23" t="n">
-        <v>1229.872433808053</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F23" t="n">
-        <v>818.8865290184456</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6017,22 +6019,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993393</v>
+        <v>3309.118922067648</v>
       </c>
       <c r="U23" t="n">
-        <v>3119.628073993393</v>
+        <v>3055.588445341484</v>
       </c>
       <c r="V23" t="n">
-        <v>3119.628073993393</v>
+        <v>2724.525557997913</v>
       </c>
       <c r="W23" t="n">
-        <v>3119.628073993393</v>
+        <v>2371.756902727799</v>
       </c>
       <c r="X23" t="n">
-        <v>3119.628073993393</v>
+        <v>1998.291144466719</v>
       </c>
       <c r="Y23" t="n">
-        <v>2729.488742017581</v>
+        <v>1608.151812490907</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
@@ -6099,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2850.128754259754</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C25" t="n">
-        <v>2850.128754259754</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D25" t="n">
-        <v>2850.128754259754</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E25" t="n">
-        <v>2850.128754259754</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F25" t="n">
-        <v>2850.128754259754</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>2714.773796186966</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.605821609171</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T25" t="n">
-        <v>3325.605821609171</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U25" t="n">
-        <v>3325.605821609171</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V25" t="n">
-        <v>3070.921333403284</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="W25" t="n">
-        <v>3070.921333403284</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X25" t="n">
-        <v>3070.921333403284</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y25" t="n">
-        <v>2850.128754259754</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1190.154071768027</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C26" t="n">
-        <v>1190.154071768027</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D26" t="n">
-        <v>1190.154071768027</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E26" t="n">
         <v>1190.154071768027</v>
@@ -6227,13 +6229,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6251,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3310.740618737019</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>3057.210142010856</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450753</v>
+        <v>2726.147254667285</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180638</v>
+        <v>2726.147254667285</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.509627919559</v>
+        <v>2352.681496406205</v>
       </c>
       <c r="Y26" t="n">
-        <v>1308.370295943747</v>
+        <v>1962.542164430393</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
         <v>66.5121164321834</v>
@@ -6336,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6345,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.5121164321834</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="C28" t="n">
-        <v>66.5121164321834</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="D28" t="n">
-        <v>66.5121164321834</v>
+        <v>140.339771534062</v>
       </c>
       <c r="E28" t="n">
-        <v>66.5121164321834</v>
+        <v>140.339771534062</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>140.339771534062</v>
       </c>
       <c r="G28" t="n">
         <v>66.5121164321834</v>
@@ -6409,25 +6411,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>218.3316393401808</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V28" t="n">
-        <v>66.5121164321834</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W28" t="n">
-        <v>66.5121164321834</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X28" t="n">
-        <v>66.5121164321834</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.5121164321834</v>
+        <v>472.1048757766374</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1559.116588708439</v>
+        <v>1519.109083729354</v>
       </c>
       <c r="C29" t="n">
-        <v>1190.154071768027</v>
+        <v>1150.146566788942</v>
       </c>
       <c r="D29" t="n">
-        <v>1190.154071768027</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="E29" t="n">
-        <v>1190.154071768027</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F29" t="n">
-        <v>779.1681669784198</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U29" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V29" t="n">
-        <v>2678.274518176918</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W29" t="n">
-        <v>2325.505862906803</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X29" t="n">
-        <v>2325.505862906803</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y29" t="n">
-        <v>1935.366530930992</v>
+        <v>1519.109083729354</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6573,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6582,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>310.0549803959803</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C31" t="n">
-        <v>310.0549803959803</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D31" t="n">
-        <v>310.0549803959803</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E31" t="n">
-        <v>310.0549803959803</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F31" t="n">
-        <v>310.0549803959803</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962289</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L31" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588484</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886959</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068856</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596443</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.887005818185</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R31" t="n">
-        <v>831.0565485757129</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S31" t="n">
-        <v>639.3706644025392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T31" t="n">
-        <v>417.6040489720652</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U31" t="n">
-        <v>417.6040489720652</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V31" t="n">
-        <v>417.6040489720652</v>
+        <v>3070.921333403283</v>
       </c>
       <c r="W31" t="n">
-        <v>417.6040489720652</v>
+        <v>2781.504163366323</v>
       </c>
       <c r="X31" t="n">
-        <v>417.6040489720652</v>
+        <v>2553.514612468305</v>
       </c>
       <c r="Y31" t="n">
-        <v>417.6040489720652</v>
+        <v>2471.230932223169</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2345.167438673965</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="C32" t="n">
-        <v>1976.204921733553</v>
+        <v>1137.40130300895</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>779.1356044021993</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U32" t="n">
-        <v>2961.784676410101</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V32" t="n">
-        <v>2961.784676410101</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W32" t="n">
-        <v>2731.767278738087</v>
+        <v>2656.568750250375</v>
       </c>
       <c r="X32" t="n">
-        <v>2731.767278738087</v>
+        <v>2283.102991989295</v>
       </c>
       <c r="Y32" t="n">
-        <v>2731.767278738087</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6783,46 +6785,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.230932223171</v>
       </c>
       <c r="C34" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.230932223171</v>
       </c>
       <c r="D34" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.230932223171</v>
       </c>
       <c r="E34" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.230932223171</v>
       </c>
       <c r="F34" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.230932223171</v>
       </c>
       <c r="G34" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.230932223171</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.230932223171</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.230932223171</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.053685760608</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.364540028279</v>
+        <v>2581.364540028281</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950636</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249834</v>
+        <v>2904.506865249836</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279681</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497871</v>
+        <v>3213.734051497873</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250629</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.60582160917</v>
+        <v>3243.322141364036</v>
       </c>
       <c r="V34" t="n">
-        <v>3070.921333403283</v>
+        <v>2988.637653158149</v>
       </c>
       <c r="W34" t="n">
-        <v>2781.504163366323</v>
+        <v>2699.220483121188</v>
       </c>
       <c r="X34" t="n">
-        <v>2553.514612468305</v>
+        <v>2471.230932223171</v>
       </c>
       <c r="Y34" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.230932223171</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1986.901740067214</v>
+        <v>1208.812782134349</v>
       </c>
       <c r="C35" t="n">
-        <v>1617.939223126803</v>
+        <v>839.8502651939375</v>
       </c>
       <c r="D35" t="n">
-        <v>1617.939223126803</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
@@ -6950,37 +6952,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U35" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V35" t="n">
-        <v>2866.097597267229</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W35" t="n">
-        <v>2866.097597267229</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X35" t="n">
-        <v>2763.640912107148</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2373.501580131336</v>
+        <v>1595.412622198471</v>
       </c>
     </row>
     <row r="36">
@@ -7005,22 +7007,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>610.2639694321828</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="C37" t="n">
-        <v>610.2639694321828</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="D37" t="n">
-        <v>610.2639694321828</v>
+        <v>481.6674995314928</v>
       </c>
       <c r="E37" t="n">
-        <v>527.322087337517</v>
+        <v>333.7544059490997</v>
       </c>
       <c r="F37" t="n">
-        <v>380.4321398396066</v>
+        <v>333.7544059490997</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143256</v>
+        <v>166.0515693238187</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R37" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S37" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T37" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U37" t="n">
-        <v>831.0565485757129</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V37" t="n">
-        <v>831.0565485757129</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="W37" t="n">
-        <v>831.0565485757129</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="X37" t="n">
-        <v>831.0565485757129</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="Y37" t="n">
-        <v>610.2639694321828</v>
+        <v>631.7841389438286</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1942.567517572959</v>
+        <v>1208.812782134349</v>
       </c>
       <c r="C38" t="n">
-        <v>1573.605000632547</v>
+        <v>839.8502651939375</v>
       </c>
       <c r="D38" t="n">
-        <v>1215.339302025797</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="E38" t="n">
-        <v>829.5510494275522</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F38" t="n">
-        <v>418.5651446379447</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U38" t="n">
-        <v>3072.075344883006</v>
+        <v>3042.849255049048</v>
       </c>
       <c r="V38" t="n">
-        <v>3072.075344883006</v>
+        <v>2711.786367705477</v>
       </c>
       <c r="W38" t="n">
-        <v>2719.306689612892</v>
+        <v>2359.017712435363</v>
       </c>
       <c r="X38" t="n">
-        <v>2719.306689612892</v>
+        <v>1985.551954174283</v>
       </c>
       <c r="Y38" t="n">
-        <v>2329.16735763708</v>
+        <v>1595.412622198471</v>
       </c>
     </row>
     <row r="39">
@@ -7227,70 +7229,70 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U39" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X39" t="n">
         <v>1317.519490266131</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="C40" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="D40" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="E40" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="F40" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="G40" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H40" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I40" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.053685760608</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.364540028279</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950636</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249834</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279681</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.734051497871</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.685054250629</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.60582160917</v>
+        <v>3103.839206178697</v>
       </c>
       <c r="U40" t="n">
-        <v>3036.502954734814</v>
+        <v>3015.332590466017</v>
       </c>
       <c r="V40" t="n">
-        <v>2781.818466528927</v>
+        <v>2760.648102260131</v>
       </c>
       <c r="W40" t="n">
-        <v>2492.401296491966</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="X40" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="Y40" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.23093222317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1278.332234886374</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C41" t="n">
-        <v>909.3697179459625</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D41" t="n">
-        <v>909.3697179459625</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E41" t="n">
-        <v>523.5814653477182</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
         <v>66.5121164321834</v>
@@ -7436,25 +7438,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V41" t="n">
-        <v>2781.305820457502</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W41" t="n">
-        <v>2428.537165187387</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X41" t="n">
-        <v>2055.071406926308</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y41" t="n">
-        <v>1664.932074950496</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="42">
@@ -7494,7 +7496,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>541.9536817013565</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C43" t="n">
-        <v>541.9536817013565</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D43" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F43" t="n">
         <v>234.2149530574644</v>
@@ -7594,25 +7596,25 @@
         <v>831.0565485757129</v>
       </c>
       <c r="S43" t="n">
-        <v>831.0565485757129</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T43" t="n">
-        <v>831.0565485757129</v>
+        <v>523.3178199318208</v>
       </c>
       <c r="U43" t="n">
-        <v>541.9536817013565</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="V43" t="n">
-        <v>541.9536817013565</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="W43" t="n">
-        <v>541.9536817013565</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="X43" t="n">
-        <v>541.9536817013565</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="Y43" t="n">
-        <v>541.9536817013565</v>
+        <v>234.2149530574644</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1624.63871203243</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C44" t="n">
-        <v>1617.939223126803</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D44" t="n">
-        <v>1617.939223126803</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E44" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
         <v>66.5121164321834</v>
@@ -7679,19 +7681,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883006</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V44" t="n">
-        <v>2741.012457539436</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W44" t="n">
-        <v>2388.243802269321</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X44" t="n">
-        <v>2014.778044008242</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y44" t="n">
-        <v>1624.63871203243</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="45">
@@ -7731,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2619.144025805562</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C46" t="n">
-        <v>2619.144025805562</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D46" t="n">
-        <v>2619.144025805562</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E46" t="n">
         <v>2471.230932223169</v>
@@ -7828,28 +7830,28 @@
         <v>3325.60582160917</v>
       </c>
       <c r="R46" t="n">
-        <v>3249.574620677349</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S46" t="n">
-        <v>3249.574620677349</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T46" t="n">
-        <v>3249.574620677349</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U46" t="n">
-        <v>3249.574620677349</v>
+        <v>3243.322141364034</v>
       </c>
       <c r="V46" t="n">
-        <v>3249.574620677349</v>
+        <v>2988.637653158147</v>
       </c>
       <c r="W46" t="n">
-        <v>3249.574620677349</v>
+        <v>2699.220483121187</v>
       </c>
       <c r="X46" t="n">
-        <v>3021.585069779332</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="Y46" t="n">
-        <v>2800.792490635802</v>
+        <v>2471.230932223169</v>
       </c>
     </row>
   </sheetData>
@@ -22550,7 +22552,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543627</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22562,10 +22564,10 @@
         <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399027</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.0817190166637</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>34.54901887416506</v>
+        <v>48.27134388011191</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038146</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897333</v>
       </c>
     </row>
     <row r="3">
@@ -22623,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>31.33716732929918</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22635,7 +22637,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -22644,10 +22646,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409152</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846324</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377063</v>
       </c>
       <c r="V3" t="n">
-        <v>67.62804997333097</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459997</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715784</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098472</v>
+        <v>18.15710861098407</v>
       </c>
     </row>
     <row r="4">
@@ -22720,16 +22722,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825422</v>
+        <v>37.06597233494156</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402859</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,10 +22746,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709393</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515973</v>
+        <v>68.6860405515972</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -22756,7 +22758,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>171.5037272356661</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -22790,19 +22792,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>342.2291500161421</v>
+        <v>194.4047829059416</v>
       </c>
       <c r="F5" t="n">
-        <v>219.3504585753916</v>
+        <v>219.3504585753912</v>
       </c>
       <c r="G5" t="n">
-        <v>225.5722460637382</v>
+        <v>225.5722460637378</v>
       </c>
       <c r="H5" t="n">
-        <v>129.3682389399025</v>
+        <v>151.7212889301275</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666378</v>
+        <v>77.0817190166637</v>
       </c>
       <c r="S5" t="n">
         <v>158.7758131900531</v>
@@ -22863,28 +22865,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>119.0944647535806</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>30.23706061590673</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U6" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>64.16939599459974</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22957,16 +22959,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>101.2177245773851</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825418</v>
+        <v>4.854053373819326</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159726</v>
+        <v>68.6860405515972</v>
       </c>
       <c r="R7" t="n">
         <v>132.8223696106904</v>
@@ -23021,22 +23023,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046874</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>193.3180350541607</v>
+        <v>194.4047829059417</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>367.1748256855914</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>225.5722460637379</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23066,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092505</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23087,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23100,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>132.1241054431993</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904886</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>30.29553977028931</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23179,31 +23181,31 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>58.75685146043833</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923926</v>
+        <v>4.85405337381949</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425556</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>110.0581166302217</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>145.9927856228094</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23311,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23337,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>1.772586778758807</v>
       </c>
       <c r="E13" t="n">
-        <v>32.98909394248345</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>167.8579417260432</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>47.51613997224956</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,22 +23655,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>131.8582917620358</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>134.6028816460778</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23738,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>94.87516969978333</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -23795,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>139.5326190389239</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>126.1076155364327</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>225.1538233277209</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23972,16 +23974,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>153.1883133533586</v>
+        <v>220.0509458470719</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24130,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>107.7439527351652</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24190,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>90.96301755248723</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.255751353300354</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,19 +24259,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>187.5959395935127</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>32.02439976696843</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>101.8363156449106</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>265.6997797295181</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,7 +24451,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24491,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>189.2014192961908</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24503,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>92.93642970816846</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24649,25 +24651,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>101.8363156449106</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10.24639886315333</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24743,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>4.713429768130823</v>
       </c>
     </row>
     <row r="30">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>73.3584022916132</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24853,10 +24855,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>137.1238099094101</v>
       </c>
     </row>
     <row r="32">
@@ -24923,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>128.9317724083255</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24968,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>121.5237450221188</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -25129,7 +25131,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>204.7509947629281</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>137.1238099094101</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25157,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25211,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>268.2989823699891</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>284.1719029921754</v>
       </c>
     </row>
     <row r="36">
@@ -25315,19 +25317,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>64.32149937285008</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>46.21095655160192</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25366,7 +25368,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25397,13 +25399,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>62.38922772974979</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -25442,19 +25444,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>174.984141204</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25600,10 +25602,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>198.5902886500598</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>204.750994762928</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25631,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>102.0009892577794</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25789,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>135.8091423302597</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25834,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>104.656633250158</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>358.6403977544368</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,10 +25921,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>13.66126374754467</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26077,19 +26079,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>204.7509947629281</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>424931.0936061948</v>
+        <v>424931.0936061956</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>424931.0936061951</v>
+        <v>424931.0936061954</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>658545.8706526514</v>
+        <v>424931.0936061954</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839054.4922903114</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>158307.6623238765</v>
+        <v>158307.6623238767</v>
       </c>
       <c r="C2" t="n">
-        <v>158307.6623238765</v>
+        <v>158307.6623238767</v>
       </c>
       <c r="D2" t="n">
-        <v>245340.6184784387</v>
+        <v>158307.6623238766</v>
       </c>
       <c r="E2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="F2" t="n">
         <v>312588.9285003117</v>
       </c>
       <c r="G2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="H2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="I2" t="n">
-        <v>312588.928500312</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="J2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="K2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.9285003116</v>
       </c>
       <c r="L2" t="n">
         <v>312588.9285003119</v>
@@ -26353,7 +26355,7 @@
         <v>312588.9285003116</v>
       </c>
       <c r="P2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003117</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208449</v>
+        <v>591356.9025208458</v>
       </c>
       <c r="C3" t="n">
-        <v>3.10570385408937e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>371558.524948766</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.74576691</v>
+        <v>627134.6436336671</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.9447285445</v>
+        <v>49064.94472854468</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89743.37813127023</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608614</v>
+        <v>160456.4418678771</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8001180723338</v>
+        <v>137.8001180723343</v>
       </c>
       <c r="C4" t="n">
-        <v>137.800118072334</v>
+        <v>137.8001180723343</v>
       </c>
       <c r="D4" t="n">
-        <v>384.3219252469135</v>
+        <v>137.8001180723342</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.646989006123</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.646989006123</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061232</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="M4" t="n">
         <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161354</v>
+        <v>56985.8004116136</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26494,16 +26496,16 @@
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="L5" t="n">
+        <v>74306.34056139331</v>
+      </c>
+      <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="L5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="M5" t="n">
-        <v>74306.34056139328</v>
-      </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
         <v>74306.34056139328</v>
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490172.8407266543</v>
+        <v>-490172.840726655</v>
       </c>
       <c r="C6" t="n">
-        <v>101184.0617941903</v>
+        <v>101184.0617941908</v>
       </c>
       <c r="D6" t="n">
-        <v>-211801.3102514465</v>
+        <v>101184.0617941907</v>
       </c>
       <c r="E6" t="n">
-        <v>-38332.80481699761</v>
+        <v>-389436.7026837548</v>
       </c>
       <c r="F6" t="n">
-        <v>237697.9409499123</v>
+        <v>237697.9409499122</v>
       </c>
       <c r="G6" t="n">
+        <v>237697.9409499122</v>
+      </c>
+      <c r="H6" t="n">
+        <v>237697.9409499122</v>
+      </c>
+      <c r="I6" t="n">
+        <v>237697.9409499122</v>
+      </c>
+      <c r="J6" t="n">
+        <v>188632.9962213677</v>
+      </c>
+      <c r="K6" t="n">
+        <v>237697.9409499122</v>
+      </c>
+      <c r="L6" t="n">
         <v>237697.9409499124</v>
       </c>
-      <c r="H6" t="n">
-        <v>237697.9409499124</v>
-      </c>
-      <c r="I6" t="n">
-        <v>237697.9409499126</v>
-      </c>
-      <c r="J6" t="n">
-        <v>188632.996221368</v>
-      </c>
-      <c r="K6" t="n">
-        <v>237697.9409499124</v>
-      </c>
-      <c r="L6" t="n">
-        <v>147954.5628186423</v>
-      </c>
       <c r="M6" t="n">
-        <v>165606.5883338262</v>
+        <v>77241.49908203524</v>
       </c>
       <c r="N6" t="n">
         <v>237697.9409499123</v>
@@ -26561,7 +26563,7 @@
         <v>237697.9409499122</v>
       </c>
       <c r="P6" t="n">
-        <v>237697.9409499124</v>
+        <v>237697.9409499123</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="D3" t="n">
-        <v>853.710664537684</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26765,7 +26767,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022926</v>
@@ -26814,16 +26816,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.401455402293</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="L4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022925</v>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>305.2407236247794</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556143</v>
+        <v>541.3067596803933</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>354.5893695598434</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761293</v>
+        <v>643.8758682359723</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663195</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.589369559843</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761293</v>
+        <v>643.8758682359722</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598434</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761293</v>
+        <v>643.8758682359723</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>280.687253629268</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O5" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H6" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S6" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K7" t="n">
         <v>114.9089482765069</v>
@@ -31452,31 +31454,31 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N7" t="n">
         <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P7" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R7" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840425</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934777</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662297</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928394</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699489</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206619</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095114</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616797</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730377</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152842</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884504</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475631</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053858</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057842</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017474</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001568</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368735</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282505</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420138</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153088</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978874</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32494,7 +32496,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563564</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
         <v>99.83230779806951</v>
@@ -32804,7 +32806,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33266,7 +33268,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33418,40 +33420,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33570,43 +33572,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33664,7 +33666,7 @@
         <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574987</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
         <v>781.7148990095023</v>
@@ -33740,7 +33742,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33892,7 +33894,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953979</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
         <v>557.281137600381</v>
@@ -33974,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34214,7 +34216,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34451,7 +34453,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848235</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646066</v>
+        <v>12.15921574646086</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061144</v>
+        <v>16.11138312061163</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520815</v>
+        <v>23.66518529520835</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400438</v>
+        <v>1.340357307400609</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788333</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L5" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P5" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L6" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646086</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061163</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520835</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400609</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142394</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808905</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140553</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866205</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109601</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093947</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510194</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892904</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850721</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563525</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767806</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769679</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O13" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O16" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36452,7 +36454,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36914,7 +36916,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K34" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L34" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M34" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N34" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O34" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P34" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.921115830226</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37388,7 +37390,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687116</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37622,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37862,7 +37864,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -38099,7 +38101,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_20_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_20_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>572993.6190112255</v>
+        <v>515726.6621658591</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>13462970.16515364</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8547013.059513934</v>
+        <v>8075147.777471314</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8506890.903312847</v>
+        <v>8732485.348274978</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>165.1725371760949</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135.1960163205682</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846314</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663203</v>
+        <v>165.1725371760944</v>
       </c>
     </row>
     <row r="4">
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.00402729331256</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402845</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709379</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G5" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H5" t="n">
-        <v>165.1725371760947</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
     </row>
     <row r="6">
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>53.6140342347351</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>38.71987512790844</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265832</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846314</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>52.2159462544348</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>187.5255871663201</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>39.70122005612006</v>
+        <v>104.6603749489715</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663201</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>40.58439354511647</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>26.4203599779466</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1226,10 +1226,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.4639581460431719</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>52.21594625443465</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,13 +1378,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>235.9375844494523</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>187.1115933738224</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883145</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>146.8428862394535</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>18.56488642963128</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1612,19 +1612,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>186.8250998946398</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>222.2939238702235</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>14.57567088453339</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>19.78589926923083</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1846,22 +1846,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>287.0552003724785</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>211.0785184722391</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>100.2063103874221</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>19.31343248649855</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>79.41818244097658</v>
       </c>
       <c r="U20" t="n">
-        <v>30.94422611183006</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>58.28185552386306</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>18.34931605023329</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>16.32203054610746</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>89.8667662700847</v>
       </c>
     </row>
     <row r="24">
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>107.0704956909093</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>184.3755225607023</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>14.71655084342929</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>227.7359967734926</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U27" t="n">
         <v>225.7871683969286</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>73.08937855085976</v>
+        <v>164.9502303766372</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>38.18739105194145</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2803,10 +2803,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>381.5245088879228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>131.5522128412691</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.46084344268475</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3034,22 +3034,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>252.9985976639363</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>60.3653847258752</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>81.46084344268475</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,13 +3271,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>102.0660356638782</v>
+        <v>212.2140719095426</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>133.7337232129123</v>
       </c>
       <c r="H37" t="n">
-        <v>98.54405836271886</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,13 +3508,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>76.01103075490194</v>
+        <v>186.1590670005672</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>53.54735467376837</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>87.62154955555303</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>229.7965692041367</v>
+        <v>286.4654361897232</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>114.8923160260112</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>20.95866062610969</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>229.7965692041367</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>120.0680993509756</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>20.95866062611014</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>81.46084344268475</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>204.4218319897908</v>
+        <v>371.26277863231</v>
       </c>
       <c r="C2" t="n">
-        <v>204.4218319897908</v>
+        <v>371.26277863231</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330562</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.0337116067851</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058976</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079189</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644762</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123838</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985594</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020279</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T2" t="n">
-        <v>583.2614020227611</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U2" t="n">
-        <v>583.2614020227611</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V2" t="n">
-        <v>393.8416170062759</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W2" t="n">
-        <v>393.8416170062759</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X2" t="n">
-        <v>393.8416170062759</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="Y2" t="n">
-        <v>204.4218319897908</v>
+        <v>560.6825636487947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161.5366049464207</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>161.5366049464207</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>161.5366049464207</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464207</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024228</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772652</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140249</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546608</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476361</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017076</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264295</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264295</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264295</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U3" t="n">
-        <v>487.5180226099444</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V3" t="n">
-        <v>487.5180226099444</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W3" t="n">
-        <v>487.5180226099444</v>
+        <v>371.26277863231</v>
       </c>
       <c r="X3" t="n">
-        <v>487.5180226099444</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="Y3" t="n">
-        <v>298.0982375934592</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.45491281910462</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>49.45491281910462</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>49.45491281910462</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>49.45491281910462</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>49.45491281910462</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>49.45491281910462</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>49.45491281910462</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>49.45491281910462</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404143</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230188</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170739</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396366</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910462</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910462</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910462</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910462</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910462</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910462</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910462</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910462</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910462</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.45491281910462</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>750.1023486652808</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="C5" t="n">
-        <v>750.1023486652808</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="D5" t="n">
-        <v>750.1023486652808</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="E5" t="n">
-        <v>560.6825636487957</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="F5" t="n">
-        <v>371.2627786323106</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8429936158256</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M5" t="n">
-        <v>347.121819064476</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123834</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985592</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020275</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T5" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U5" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V5" t="n">
-        <v>750.1023486652808</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="W5" t="n">
-        <v>750.1023486652808</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="X5" t="n">
-        <v>750.1023486652808</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="Y5" t="n">
-        <v>750.1023486652808</v>
+        <v>393.8416170062752</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>676.9378076264292</v>
+        <v>203.0474416122422</v>
       </c>
       <c r="C6" t="n">
-        <v>622.7822174903331</v>
+        <v>203.0474416122422</v>
       </c>
       <c r="D6" t="n">
-        <v>473.8478078290819</v>
+        <v>54.11303195099089</v>
       </c>
       <c r="E6" t="n">
-        <v>314.6103528236264</v>
+        <v>54.11303195099089</v>
       </c>
       <c r="F6" t="n">
-        <v>168.0757948505114</v>
+        <v>54.11303195099089</v>
       </c>
       <c r="G6" t="n">
-        <v>30.53661367296049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H6" t="n">
-        <v>30.53661367296049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I6" t="n">
-        <v>30.53661367296049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L6" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017073</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R6" t="n">
-        <v>676.9378076264292</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S6" t="n">
-        <v>676.9378076264292</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T6" t="n">
-        <v>676.9378076264292</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U6" t="n">
-        <v>676.9378076264292</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="V6" t="n">
-        <v>676.9378076264292</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="W6" t="n">
-        <v>676.9378076264292</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="X6" t="n">
-        <v>676.9378076264292</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="Y6" t="n">
-        <v>676.9378076264292</v>
+        <v>371.2627786323102</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C7" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D7" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E7" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F7" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G7" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H7" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I7" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230187</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170739</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396366</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W7" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X7" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.74542702829027</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>750.1023486652805</v>
+        <v>1241.481122113637</v>
       </c>
       <c r="C8" t="n">
-        <v>560.6825636487955</v>
+        <v>872.5186051732258</v>
       </c>
       <c r="D8" t="n">
-        <v>560.6825636487955</v>
+        <v>872.5186051732258</v>
       </c>
       <c r="E8" t="n">
-        <v>371.2627786323105</v>
+        <v>872.5186051732258</v>
       </c>
       <c r="F8" t="n">
-        <v>331.1605361513812</v>
+        <v>766.8010547197192</v>
       </c>
       <c r="G8" t="n">
-        <v>141.7407511348962</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H8" t="n">
-        <v>141.7407511348962</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330561</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678512</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058962</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079187</v>
+        <v>669.5878927711869</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644759</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123835</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985591</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020272</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652805</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652805</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652805</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>750.1023486652805</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U8" t="n">
-        <v>750.1023486652805</v>
+        <v>1572.544009457208</v>
       </c>
       <c r="V8" t="n">
-        <v>750.1023486652805</v>
+        <v>1241.481122113637</v>
       </c>
       <c r="W8" t="n">
-        <v>750.1023486652805</v>
+        <v>1241.481122113637</v>
       </c>
       <c r="X8" t="n">
-        <v>750.1023486652805</v>
+        <v>1241.481122113637</v>
       </c>
       <c r="Y8" t="n">
-        <v>750.1023486652805</v>
+        <v>1241.481122113637</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>750.1023486652805</v>
+        <v>687.1574648836308</v>
       </c>
       <c r="C9" t="n">
-        <v>709.1080117510214</v>
+        <v>512.7044356025038</v>
       </c>
       <c r="D9" t="n">
-        <v>560.1736020897702</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E9" t="n">
-        <v>400.9361470843146</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F9" t="n">
-        <v>254.4015891111996</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G9" t="n">
-        <v>116.8624079336487</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330561</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330561</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330561</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024219</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772652</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140247</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546606</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476354</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017069</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652805</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652805</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652805</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652805</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="U9" t="n">
-        <v>750.1023486652805</v>
+        <v>1506.136709105928</v>
       </c>
       <c r="V9" t="n">
-        <v>750.1023486652805</v>
+        <v>1270.984600874186</v>
       </c>
       <c r="W9" t="n">
-        <v>750.1023486652805</v>
+        <v>1270.984600874186</v>
       </c>
       <c r="X9" t="n">
-        <v>750.1023486652805</v>
+        <v>1063.133100668653</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.1023486652805</v>
+        <v>855.3728019036989</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.74542702829011</v>
+        <v>338.6408822103593</v>
       </c>
       <c r="C10" t="n">
-        <v>67.74542702829011</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="D10" t="n">
-        <v>67.74542702829011</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="E10" t="n">
-        <v>67.74542702829011</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F10" t="n">
-        <v>67.74542702829011</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>67.74542702829011</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>67.74542702829011</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>67.74542702829011</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330561</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330561</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230183</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170729</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396353</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702829011</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702829011</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702829011</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702829011</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702829011</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702829011</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702829011</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>67.74542702829011</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W10" t="n">
-        <v>67.74542702829011</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X10" t="n">
-        <v>67.74542702829011</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.74542702829011</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1032.06112435253</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C11" t="n">
-        <v>663.0986074121181</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D11" t="n">
-        <v>304.8329088053676</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E11" t="n">
-        <v>66.51211643218339</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>66.51211643218339</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267228</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923657</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653543</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X11" t="n">
-        <v>1808.800296392463</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y11" t="n">
-        <v>1418.660964416651</v>
+        <v>1619.798686923957</v>
       </c>
     </row>
     <row r="12">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
         <v>767.0908251999817</v>
@@ -5114,10 +5114,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5144,28 +5144,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>920.8870058181845</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C13" t="n">
-        <v>920.8870058181845</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L13" t="n">
         <v>332.3555681596504</v>
@@ -5229,22 +5229,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U13" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="V13" t="n">
-        <v>920.8870058181845</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="W13" t="n">
-        <v>920.8870058181845</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="X13" t="n">
-        <v>920.8870058181845</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.8870058181845</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.7704558796256</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C14" t="n">
-        <v>552.807938939214</v>
+        <v>1475.375487024175</v>
       </c>
       <c r="D14" t="n">
-        <v>364.0957168234162</v>
+        <v>1117.109788417424</v>
       </c>
       <c r="E14" t="n">
-        <v>364.0957168234162</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5278,10 +5278,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180639</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.509627919559</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943747</v>
+        <v>2230.937844028708</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5375,31 +5375,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
         <v>1109.759191501176</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>639.3706644025388</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="C16" t="n">
-        <v>639.3706644025388</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="D16" t="n">
-        <v>639.3706644025388</v>
+        <v>549.0037509753748</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>401.0906573929817</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>254.2007098950714</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>86.49787326979032</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>86.49787326979032</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5460,28 +5460,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R16" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S16" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T16" t="n">
-        <v>639.3706644025388</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U16" t="n">
-        <v>639.3706644025388</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="V16" t="n">
-        <v>639.3706644025388</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="W16" t="n">
-        <v>639.3706644025388</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="X16" t="n">
-        <v>639.3706644025388</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="Y16" t="n">
-        <v>639.3706644025388</v>
+        <v>699.1203903877106</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1381.278680221567</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C17" t="n">
-        <v>1012.316163281155</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="D17" t="n">
-        <v>654.0504646744046</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="E17" t="n">
-        <v>364.0957168234162</v>
+        <v>1105.781096096228</v>
       </c>
       <c r="F17" t="n">
-        <v>364.0957168234162</v>
+        <v>694.7951913066204</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>279.7227411516168</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5539,28 +5539,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2884.252265792694</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W17" t="n">
-        <v>2531.48361052258</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X17" t="n">
-        <v>2158.0178522615</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y17" t="n">
-        <v>1767.878520285688</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>666.202517612298</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="C19" t="n">
-        <v>497.2663346843912</v>
+        <v>462.5336528533173</v>
       </c>
       <c r="D19" t="n">
-        <v>497.2663346843912</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E19" t="n">
-        <v>497.2663346843912</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
         <v>332.3555681596505</v>
@@ -5709,16 +5709,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="V19" t="n">
-        <v>666.202517612298</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W19" t="n">
-        <v>666.202517612298</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X19" t="n">
-        <v>666.202517612298</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y19" t="n">
-        <v>666.202517612298</v>
+        <v>631.4698357812242</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1144.044138553435</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C20" t="n">
-        <v>775.0816216130238</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
-        <v>775.0816216130238</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>775.0816216130238</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5752,7 +5752,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
@@ -5761,10 +5761,10 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5782,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3135.094766832249</v>
       </c>
       <c r="U20" t="n">
-        <v>2978.080611468134</v>
+        <v>3135.094766832249</v>
       </c>
       <c r="V20" t="n">
-        <v>2647.017724124563</v>
+        <v>3135.094766832249</v>
       </c>
       <c r="W20" t="n">
-        <v>2294.249068854449</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="X20" t="n">
-        <v>1920.783310593369</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y20" t="n">
-        <v>1530.643978617557</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="21">
@@ -5807,34 +5807,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L21" t="n">
         <v>765.1517452158134</v>
@@ -5846,31 +5846,31 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3143.957356778931</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C22" t="n">
-        <v>2975.021173851024</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D22" t="n">
-        <v>2824.904534438688</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>2676.991440856295</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>2530.101493358385</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K22" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L22" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M22" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N22" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O22" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P22" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.605821609171</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.605821609171</v>
+        <v>710.6664589680076</v>
       </c>
       <c r="U22" t="n">
-        <v>3325.605821609171</v>
+        <v>710.6664589680076</v>
       </c>
       <c r="V22" t="n">
-        <v>3325.605821609171</v>
+        <v>710.6664589680076</v>
       </c>
       <c r="W22" t="n">
-        <v>3325.605821609171</v>
+        <v>710.6664589680076</v>
       </c>
       <c r="X22" t="n">
-        <v>3325.605821609171</v>
+        <v>710.6664589680076</v>
       </c>
       <c r="Y22" t="n">
-        <v>3325.605821609171</v>
+        <v>710.6664589680076</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1221.551972426786</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C23" t="n">
-        <v>1221.551972426786</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D23" t="n">
-        <v>863.2862738200351</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E23" t="n">
-        <v>477.498021221791</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F23" t="n">
-        <v>66.51211643218342</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
         <v>66.51211643218342</v>
@@ -5989,10 +5989,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3309.118922067648</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U23" t="n">
-        <v>3055.588445341484</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>2724.525557997913</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W23" t="n">
-        <v>2371.756902727799</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X23" t="n">
-        <v>1998.291144466719</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y23" t="n">
-        <v>1608.151812490907</v>
+        <v>1981.200874796715</v>
       </c>
     </row>
     <row r="24">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.51211643218342</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="C25" t="n">
-        <v>66.51211643218342</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218342</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218342</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
         <v>66.51211643218342</v>
@@ -6174,25 +6174,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>321.1966046380703</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V25" t="n">
-        <v>66.51211643218342</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W25" t="n">
-        <v>66.51211643218342</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="X25" t="n">
-        <v>66.51211643218342</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.51211643218342</v>
+        <v>342.3669689068678</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1575.942324366272</v>
+        <v>1261.532988317206</v>
       </c>
       <c r="C26" t="n">
-        <v>1575.942324366272</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="D26" t="n">
-        <v>1575.942324366272</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E26" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
         <v>66.5121164321834</v>
@@ -6256,22 +6256,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3310.740618737019</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>3057.210142010856</v>
+        <v>3095.569461231905</v>
       </c>
       <c r="V26" t="n">
-        <v>2726.147254667285</v>
+        <v>2764.506573888334</v>
       </c>
       <c r="W26" t="n">
-        <v>2726.147254667285</v>
+        <v>2411.73791861822</v>
       </c>
       <c r="X26" t="n">
-        <v>2352.681496406205</v>
+        <v>2038.27216035714</v>
       </c>
       <c r="Y26" t="n">
-        <v>1962.542164430393</v>
+        <v>1648.132828381328</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>290.4564109463977</v>
+        <v>700.0944266746548</v>
       </c>
       <c r="C28" t="n">
-        <v>290.4564109463977</v>
+        <v>531.1582437467479</v>
       </c>
       <c r="D28" t="n">
-        <v>140.339771534062</v>
+        <v>381.0416043344121</v>
       </c>
       <c r="E28" t="n">
-        <v>140.339771534062</v>
+        <v>233.128510752019</v>
       </c>
       <c r="F28" t="n">
-        <v>140.339771534062</v>
+        <v>233.128510752019</v>
       </c>
       <c r="G28" t="n">
         <v>66.5121164321834</v>
@@ -6426,10 +6426,10 @@
         <v>920.8870058181849</v>
       </c>
       <c r="X28" t="n">
-        <v>692.8974549201675</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y28" t="n">
-        <v>472.1048757766374</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1519.109083729354</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="C29" t="n">
-        <v>1150.146566788942</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D29" t="n">
-        <v>791.8808681821918</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E29" t="n">
-        <v>406.0926155839475</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
         <v>406.0926155839475</v>
@@ -6463,7 +6463,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810553</v>
@@ -6490,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.784676410101</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V29" t="n">
-        <v>2630.721789066531</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W29" t="n">
-        <v>2277.953133796416</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X29" t="n">
-        <v>1904.487375535336</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y29" t="n">
-        <v>1519.109083729354</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="30">
@@ -6548,7 +6548,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2471.230932223169</v>
+        <v>518.445961844415</v>
       </c>
       <c r="C31" t="n">
-        <v>2471.230932223169</v>
+        <v>349.5097789165081</v>
       </c>
       <c r="D31" t="n">
-        <v>2471.230932223169</v>
+        <v>199.3931395041724</v>
       </c>
       <c r="E31" t="n">
-        <v>2471.230932223169</v>
+        <v>199.3931395041724</v>
       </c>
       <c r="F31" t="n">
-        <v>2471.230932223169</v>
+        <v>199.3931395041724</v>
       </c>
       <c r="G31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K31" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N31" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O31" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P31" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R31" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S31" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U31" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V31" t="n">
-        <v>3070.921333403283</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W31" t="n">
-        <v>2781.504163366323</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X31" t="n">
-        <v>2553.514612468305</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y31" t="n">
-        <v>2471.230932223169</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1506.363819949361</v>
+        <v>1529.83239115168</v>
       </c>
       <c r="C32" t="n">
-        <v>1137.40130300895</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="D32" t="n">
-        <v>779.1356044021993</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E32" t="n">
-        <v>523.5814653477182</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F32" t="n">
-        <v>523.5814653477182</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136267</v>
+        <v>3264.630685522427</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520489</v>
+        <v>3264.630685522427</v>
       </c>
       <c r="U32" t="n">
-        <v>3009.337405520489</v>
+        <v>3011.100208796264</v>
       </c>
       <c r="V32" t="n">
-        <v>3009.337405520489</v>
+        <v>2680.037321452693</v>
       </c>
       <c r="W32" t="n">
-        <v>2656.568750250375</v>
+        <v>2680.037321452693</v>
       </c>
       <c r="X32" t="n">
-        <v>2283.102991989295</v>
+        <v>2306.571563191613</v>
       </c>
       <c r="Y32" t="n">
-        <v>1892.963660013483</v>
+        <v>1916.432231215801</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6785,40 +6785,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
         <v>1317.519490266131</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2471.230932223171</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C34" t="n">
-        <v>2471.230932223171</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D34" t="n">
-        <v>2471.230932223171</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E34" t="n">
-        <v>2471.230932223171</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F34" t="n">
-        <v>2471.230932223171</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G34" t="n">
-        <v>2471.230932223171</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.230932223171</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.230932223171</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.364540028281</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249836</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497873</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609172</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.605821609172</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.605821609172</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.605821609172</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U34" t="n">
-        <v>3243.322141364036</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V34" t="n">
-        <v>2988.637653158149</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W34" t="n">
-        <v>2699.220483121188</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X34" t="n">
-        <v>2471.230932223171</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y34" t="n">
-        <v>2471.230932223171</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1208.812782134349</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C35" t="n">
-        <v>839.8502651939375</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D35" t="n">
-        <v>481.5845665871869</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E35" t="n">
-        <v>481.5845665871869</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.50962791956</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y35" t="n">
-        <v>1595.412622198471</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>631.7841389438286</v>
+        <v>518.445961844415</v>
       </c>
       <c r="C37" t="n">
-        <v>631.7841389438286</v>
+        <v>349.5097789165081</v>
       </c>
       <c r="D37" t="n">
-        <v>481.6674995314928</v>
+        <v>349.5097789165081</v>
       </c>
       <c r="E37" t="n">
-        <v>333.7544059490997</v>
+        <v>201.596685334115</v>
       </c>
       <c r="F37" t="n">
-        <v>333.7544059490997</v>
+        <v>201.596685334115</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0515693238187</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L37" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U37" t="n">
-        <v>631.7841389438286</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V37" t="n">
-        <v>631.7841389438286</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W37" t="n">
-        <v>631.7841389438286</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X37" t="n">
-        <v>631.7841389438286</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y37" t="n">
-        <v>631.7841389438286</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1208.812782134349</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C38" t="n">
-        <v>839.8502651939375</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D38" t="n">
-        <v>481.5845665871869</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E38" t="n">
-        <v>481.5845665871869</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
@@ -7198,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U38" t="n">
-        <v>3042.849255049048</v>
+        <v>3137.566359992436</v>
       </c>
       <c r="V38" t="n">
-        <v>2711.786367705477</v>
+        <v>2806.503472648865</v>
       </c>
       <c r="W38" t="n">
-        <v>2359.017712435363</v>
+        <v>2453.73481737875</v>
       </c>
       <c r="X38" t="n">
-        <v>1985.551954174283</v>
+        <v>2080.269059117671</v>
       </c>
       <c r="Y38" t="n">
-        <v>1595.412622198471</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7259,40 +7259,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
         <v>1317.519490266131</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.605821609171</v>
+        <v>866.7987687739744</v>
       </c>
       <c r="T40" t="n">
-        <v>3103.839206178697</v>
+        <v>645.0321533435005</v>
       </c>
       <c r="U40" t="n">
-        <v>3015.332590466017</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V40" t="n">
-        <v>2760.648102260131</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1822.632236038042</v>
+        <v>1921.870414581995</v>
       </c>
       <c r="C41" t="n">
-        <v>1453.669719097631</v>
+        <v>1552.907897641583</v>
       </c>
       <c r="D41" t="n">
-        <v>1095.40402049088</v>
+        <v>1194.642199034832</v>
       </c>
       <c r="E41" t="n">
-        <v>709.6157678926361</v>
+        <v>808.8539464365881</v>
       </c>
       <c r="F41" t="n">
-        <v>298.6298631030285</v>
+        <v>397.8680416469805</v>
       </c>
       <c r="G41" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339056</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.371408077976</v>
+        <v>2698.609586621928</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.232076102164</v>
+        <v>2308.470254646116</v>
       </c>
     </row>
     <row r="42">
@@ -7481,22 +7481,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C43" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D43" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E43" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R43" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S43" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T43" t="n">
-        <v>523.3178199318208</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U43" t="n">
-        <v>234.2149530574644</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V43" t="n">
-        <v>234.2149530574644</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W43" t="n">
-        <v>234.2149530574644</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="X43" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y43" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1822.632236038042</v>
+        <v>1384.829779622646</v>
       </c>
       <c r="C44" t="n">
-        <v>1453.669719097631</v>
+        <v>1384.829779622646</v>
       </c>
       <c r="D44" t="n">
-        <v>1095.40402049088</v>
+        <v>1026.564081015895</v>
       </c>
       <c r="E44" t="n">
-        <v>709.6157678926361</v>
+        <v>640.7758284176512</v>
       </c>
       <c r="F44" t="n">
-        <v>298.6298631030285</v>
+        <v>229.7899236280436</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>229.7899236280436</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7666,34 +7666,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.60582160917</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W44" t="n">
-        <v>2972.837166339056</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X44" t="n">
-        <v>2599.371408077976</v>
+        <v>2161.568951662579</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.232076102164</v>
+        <v>1771.429619686768</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2471.230932223169</v>
+        <v>87.68248070098156</v>
       </c>
       <c r="C46" t="n">
-        <v>2471.230932223169</v>
+        <v>87.68248070098156</v>
       </c>
       <c r="D46" t="n">
-        <v>2471.230932223169</v>
+        <v>87.68248070098156</v>
       </c>
       <c r="E46" t="n">
-        <v>2471.230932223169</v>
+        <v>87.68248070098156</v>
       </c>
       <c r="F46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K46" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M46" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N46" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O46" t="n">
-        <v>3213.734051497871</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P46" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T46" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U46" t="n">
-        <v>3243.322141364034</v>
+        <v>631.784138943829</v>
       </c>
       <c r="V46" t="n">
-        <v>2988.637653158147</v>
+        <v>377.0996507379422</v>
       </c>
       <c r="W46" t="n">
-        <v>2699.220483121187</v>
+        <v>87.68248070098156</v>
       </c>
       <c r="X46" t="n">
-        <v>2471.230932223169</v>
+        <v>87.68248070098156</v>
       </c>
       <c r="Y46" t="n">
-        <v>2471.230932223169</v>
+        <v>87.68248070098156</v>
       </c>
     </row>
   </sheetData>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543627</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>216.7578328961673</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166637</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>48.27134388011191</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038146</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121492</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897333</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.33716732929918</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22637,7 +22637,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -22646,10 +22646,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265832</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377063</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098407</v>
+        <v>40.51015860120992</v>
       </c>
     </row>
     <row r="4">
@@ -22722,13 +22722,13 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318195</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708666</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>37.06597233494156</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22746,10 +22746,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515972</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -22758,7 +22758,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>171.5037272356657</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -22792,16 +22792,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>194.4047829059416</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>219.3504585753912</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G5" t="n">
-        <v>225.5722460637378</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H5" t="n">
-        <v>151.7212889301275</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
         <v>125.4713171199747</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.0817190166637</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S5" t="n">
         <v>158.7758131900531</v>
@@ -22843,7 +22843,7 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>221.065401479959</v>
       </c>
     </row>
     <row r="6">
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>119.0944647535806</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>97.44391423786689</v>
       </c>
       <c r="H6" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409147</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,19 +22910,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S6" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>38.338181243771</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310535</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22959,16 +22959,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318195</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708666</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>4.854053373819326</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402845</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709379</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.6860405515972</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R7" t="n">
         <v>132.8223696106904</v>
@@ -23001,7 +23001,7 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>199.9216970693936</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23023,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>177.7473046046874</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>194.4047829059417</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>367.1748256855914</v>
+        <v>302.21567079274</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637379</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>316.8938261062223</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23099,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>132.1241054431993</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>121.0247055866921</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -23117,13 +23117,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409147</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920012</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,34 +23178,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>166.7828629525847</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>4.85405337381949</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402848</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709382</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159722</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7802557954962</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7196734901001</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,13 +23266,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>145.9927856228094</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>199.1263452822312</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.772586778758807</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>233.5727568941967</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23500,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>167.8579417260432</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>159.6364462020383</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292598</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>131.8582917620358</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>76.56652114060729</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -23734,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>94.87516969978333</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>83.52924591508136</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>48.40916263079023</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>126.1076155364327</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23974,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>124.4997876986436</v>
       </c>
       <c r="U20" t="n">
-        <v>220.0509458470719</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>107.7439527351652</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>201.1996332259359</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>187.5959395935127</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>296.3711723859689</v>
       </c>
     </row>
     <row r="24">
@@ -24375,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>38.35055233202192</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,19 +24414,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>101.8363156449106</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,13 +24445,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24496,16 +24496,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>189.2014192961908</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>23.25917518540936</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>92.93642970816846</v>
+        <v>1.075577882391002</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>327.0855007190661</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.713429768130823</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>34.47359541775913</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24897,16 +24897,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>137.1238099094101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24922,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>128.9317724083255</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>48.82237706230064</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>168.8103647053323</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>204.7509947629281</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25159,13 +25159,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>284.1719029921754</v>
+        <v>174.023866746511</v>
       </c>
     </row>
     <row r="36">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>32.29208504611594</v>
       </c>
       <c r="H37" t="n">
-        <v>46.21095655160192</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25368,7 +25368,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,13 +25396,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>174.984141204</v>
+        <v>64.83610495833477</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>136.2216706576735</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>198.5902886500598</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>181.1251564493168</v>
+        <v>124.4562894637303</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,13 +25684,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>104.656633250158</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>181.1251564493168</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>174.5396650363448</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>124.4623873968211</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26079,7 +26079,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>204.7509947629281</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>424931.0936061956</v>
+        <v>429748.4511149209</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>424931.0936061954</v>
+        <v>429909.6712438379</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>424931.0936061954</v>
+        <v>658545.8706526514</v>
       </c>
     </row>
     <row r="5">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839054.4922903114</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>158307.6623238767</v>
+        <v>159596.8143332538</v>
       </c>
       <c r="C2" t="n">
-        <v>158307.6623238767</v>
+        <v>159639.9577480344</v>
       </c>
       <c r="D2" t="n">
-        <v>158307.6623238766</v>
+        <v>245340.6184784387</v>
       </c>
       <c r="E2" t="n">
         <v>312588.9285003117</v>
@@ -26331,31 +26331,31 @@
         <v>312588.9285003118</v>
       </c>
       <c r="H2" t="n">
+        <v>312588.9285003118</v>
+      </c>
+      <c r="I2" t="n">
+        <v>312588.9285003118</v>
+      </c>
+      <c r="J2" t="n">
+        <v>312588.9285003119</v>
+      </c>
+      <c r="K2" t="n">
         <v>312588.9285003117</v>
       </c>
-      <c r="I2" t="n">
-        <v>312588.9285003117</v>
-      </c>
-      <c r="J2" t="n">
-        <v>312588.9285003118</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>312588.9285003116</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>312588.9285003119</v>
-      </c>
-      <c r="M2" t="n">
-        <v>312588.9285003117</v>
       </c>
       <c r="N2" t="n">
         <v>312588.9285003117</v>
       </c>
       <c r="O2" t="n">
-        <v>312588.9285003116</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="P2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003118</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208458</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>371558.524948766</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336671</v>
+        <v>276030.7457669098</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854468</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>89743.37813127029</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678771</v>
+        <v>72091.35261608617</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8001180723343</v>
+        <v>1494.802233206374</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723343</v>
+        <v>1540.216354028032</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8001180723342</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="E4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061423</v>
       </c>
       <c r="F4" t="n">
         <v>584.646989006123</v>
@@ -26435,10 +26435,10 @@
         <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
+        <v>584.646989006123</v>
+      </c>
+      <c r="I4" t="n">
         <v>584.6469890061231</v>
-      </c>
-      <c r="I4" t="n">
-        <v>584.6469890061232</v>
       </c>
       <c r="J4" t="n">
         <v>584.6469890061231</v>
@@ -26447,10 +26447,10 @@
         <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="N4" t="n">
         <v>584.6469890061231</v>
@@ -26459,7 +26459,7 @@
         <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
     </row>
     <row r="5">
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.8004116136</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161359</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26499,19 +26499,19 @@
         <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="M5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="N5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="O5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="P5" t="n">
         <v>74306.34056139331</v>
-      </c>
-      <c r="M5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="N5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="O5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="P5" t="n">
-        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490172.840726655</v>
+        <v>-502366.9027456894</v>
       </c>
       <c r="C6" t="n">
-        <v>101184.0617941908</v>
+        <v>88989.99977515597</v>
       </c>
       <c r="D6" t="n">
-        <v>101184.0617941907</v>
+        <v>-219414.6903676095</v>
       </c>
       <c r="E6" t="n">
-        <v>-389436.7026837548</v>
+        <v>-42406.80019516717</v>
       </c>
       <c r="F6" t="n">
-        <v>237697.9409499122</v>
+        <v>233623.9455717427</v>
       </c>
       <c r="G6" t="n">
-        <v>237697.9409499122</v>
+        <v>233623.9455717426</v>
       </c>
       <c r="H6" t="n">
-        <v>237697.9409499122</v>
+        <v>233623.9455717429</v>
       </c>
       <c r="I6" t="n">
-        <v>237697.9409499122</v>
+        <v>233623.9455717426</v>
       </c>
       <c r="J6" t="n">
-        <v>188632.9962213677</v>
+        <v>184559.0008431982</v>
       </c>
       <c r="K6" t="n">
-        <v>237697.9409499122</v>
+        <v>233623.9455717426</v>
       </c>
       <c r="L6" t="n">
-        <v>237697.9409499124</v>
+        <v>143880.5674404723</v>
       </c>
       <c r="M6" t="n">
-        <v>77241.49908203524</v>
+        <v>161532.5929556567</v>
       </c>
       <c r="N6" t="n">
-        <v>237697.9409499123</v>
+        <v>233623.9455717427</v>
       </c>
       <c r="O6" t="n">
-        <v>237697.9409499122</v>
+        <v>233623.9455717427</v>
       </c>
       <c r="P6" t="n">
-        <v>237697.9409499123</v>
+        <v>233623.9455717426</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129048</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26767,7 +26767,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663201</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022926</v>
@@ -26819,19 +26819,19 @@
         <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="N4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="O4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="N4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>305.2407236247795</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803933</v>
+        <v>236.0660360556139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359723</v>
+        <v>289.2864986761294</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359722</v>
+        <v>289.2864986761294</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359723</v>
+        <v>289.2864986761294</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043124</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622682</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619226</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924586</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590853</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405034</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975332</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.687253629268</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550081</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820373</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620021</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639164</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114199</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31217,31 +31217,31 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784864</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647913</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181397</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043124</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622682</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619226</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924586</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590853</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405034</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975332</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292675</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550081</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820373</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620021</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639164</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114199</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K7" t="n">
         <v>114.9089482765069</v>
@@ -31454,31 +31454,31 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
         <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784864</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647913</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181397</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954486</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043123</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655544</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>280.472093452864</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672894</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470275</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470026</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622681</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244296</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151093</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974684</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619225</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924584</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435305</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590852</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405033</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975331</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829655</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292674</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628873</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>73.2466083355008</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288821</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820371</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445823</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620019</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639163</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114197</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592434</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784863</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647912</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181396</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32016,7 +32016,7 @@
         <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
         <v>473.0999946781689</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32806,10 +32806,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33268,7 +33268,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33420,40 +33420,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33572,43 +33572,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33678,7 +33678,7 @@
         <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781681</v>
       </c>
       <c r="R35" t="n">
         <v>275.1987363563569</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34216,7 +34216,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868166</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.3822424078835</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973022</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405815</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916007</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406599</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781481</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996323</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848235</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855708</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765005</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646086</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061163</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520835</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400609</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868166</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K5" t="n">
-        <v>60.3822424078835</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973022</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405815</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656916007</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.7991677406599</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781481</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996323</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848231</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855708</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440765005</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646086</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061163</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520835</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400609</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868137</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788344</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973021</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197548</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504117</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405814</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656916001</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065984</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781475</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606292</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755148</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996322</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>138.091009184823</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855702</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440765002</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646083</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061158</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520832</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400581</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35664,7 +35664,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037194</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O22" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K34" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L34" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M34" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N34" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O34" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P34" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037185</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M46" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_20_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_20_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>515726.6621658591</v>
+        <v>565488.6672442007</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13462970.16515364</v>
+        <v>13476767.25690909</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8075147.777471314</v>
+        <v>8547013.059513932</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8732485.348274978</v>
+        <v>8506890.903312847</v>
       </c>
     </row>
     <row r="11">
@@ -658,70 +658,70 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>165.1725371760945</v>
+      </c>
+      <c r="U2" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="E2" t="n">
-        <v>165.1725371760944</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>187.5255871663199</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G5" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>165.1725371760946</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="6">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>38.71987512790844</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U6" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="7">
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>52.21594625443442</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>104.6603749489715</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>26.4203599779466</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>15.40229248514485</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4639581460431719</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>261.3067342683327</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>187.1115933738224</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247811</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>18.56488642963128</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>87.6215495555538</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>222.2939238702235</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.852577207994048</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824763</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>19.78589926923083</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>169.0674053960546</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>211.0785184722391</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>163.5358524338118</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247811</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>98.02480001577963</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>100.2063103874221</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>79.41818244097658</v>
+        <v>74.98619773129357</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2168,7 +2168,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>18.34931605023329</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>89.28266377778708</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>277.8135722459164</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>89.8667662700847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>149.1816830357536</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>107.0704956909093</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>227.7359967734926</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>252.1815824390006</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2687,7 +2687,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U27" t="n">
         <v>225.7871683969286</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,10 +2724,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>164.9502303766372</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>38.18739105194145</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2809,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2854,10 +2854,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>99.84252126103591</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>131.5522128412691</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>53.54735467376837</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.3653847258752</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>210.6046526660743</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>80.61446477496311</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>20.95866062610961</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3271,22 +3271,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041376</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>212.2140719095426</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>18.56488642963162</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>133.7337232129123</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,13 +3508,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>186.1590670005672</v>
+        <v>74.98619773129357</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>96.25068158191793</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>53.54735467376837</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>286.4654361897232</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>126.5388824951713</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>87.93270968653134</v>
       </c>
       <c r="X43" t="n">
-        <v>20.95866062610969</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>120.0680993509756</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>17.35112070699533</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>20.95866062611014</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>45.65951273013788</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.26277863231</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C2" t="n">
-        <v>371.26277863231</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D2" t="n">
-        <v>181.8429936158252</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E2" t="n">
         <v>15.00204697330559</v>
@@ -4330,52 +4330,52 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
         <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652795</v>
+        <v>583.26140202276</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652795</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652795</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652795</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487947</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487947</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="3">
@@ -4412,7 +4412,7 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L3" t="n">
         <v>183.5548280772649</v>
@@ -4421,40 +4421,40 @@
         <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487947</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="W3" t="n">
-        <v>371.26277863231</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="X3" t="n">
-        <v>181.8429936158252</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158254</v>
       </c>
     </row>
     <row r="4">
@@ -4494,7 +4494,7 @@
         <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
         <v>42.98993985170716</v>
@@ -4518,13 +4518,13 @@
         <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
         <v>15.00204697330559</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>393.8416170062752</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="C5" t="n">
-        <v>393.8416170062752</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="D5" t="n">
-        <v>393.8416170062752</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="E5" t="n">
-        <v>393.8416170062752</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="F5" t="n">
-        <v>204.4218319897904</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058984</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079185</v>
+        <v>191.874309407919</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N5" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020265</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652797</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652797</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652797</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T5" t="n">
-        <v>750.1023486652797</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U5" t="n">
-        <v>750.1023486652797</v>
+        <v>750.10234866528</v>
       </c>
       <c r="V5" t="n">
-        <v>560.6825636487949</v>
+        <v>750.10234866528</v>
       </c>
       <c r="W5" t="n">
-        <v>560.6825636487949</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="X5" t="n">
-        <v>560.6825636487949</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="Y5" t="n">
-        <v>393.8416170062752</v>
+        <v>393.8416170062753</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>203.0474416122422</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C6" t="n">
-        <v>203.0474416122422</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D6" t="n">
-        <v>54.11303195099089</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E6" t="n">
-        <v>54.11303195099089</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F6" t="n">
-        <v>54.11303195099089</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772653</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017063</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652797</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652797</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652797</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T6" t="n">
-        <v>750.1023486652797</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="U6" t="n">
-        <v>560.6825636487949</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="V6" t="n">
-        <v>371.2627786323102</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="W6" t="n">
-        <v>371.2627786323102</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="X6" t="n">
-        <v>371.2627786323102</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="Y6" t="n">
-        <v>371.2627786323102</v>
+        <v>181.8429936158254</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230177</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170717</v>
       </c>
       <c r="N7" t="n">
         <v>66.41847329396334</v>
@@ -4752,25 +4752,25 @@
         <v>67.74542702828987</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1241.481122113637</v>
+        <v>371.26277863231</v>
       </c>
       <c r="C8" t="n">
-        <v>872.5186051732258</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="D8" t="n">
-        <v>872.5186051732258</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E8" t="n">
-        <v>872.5186051732258</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F8" t="n">
-        <v>766.8010547197192</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G8" t="n">
-        <v>350.7700094231265</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711869</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T8" t="n">
-        <v>1826.151173794699</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="U8" t="n">
-        <v>1572.544009457208</v>
+        <v>371.26277863231</v>
       </c>
       <c r="V8" t="n">
-        <v>1241.481122113637</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W8" t="n">
-        <v>1241.481122113637</v>
+        <v>371.26277863231</v>
       </c>
       <c r="X8" t="n">
-        <v>1241.481122113637</v>
+        <v>371.26277863231</v>
       </c>
       <c r="Y8" t="n">
-        <v>1241.481122113637</v>
+        <v>371.26277863231</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>687.1574648836308</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C9" t="n">
-        <v>512.7044356025038</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D9" t="n">
-        <v>486.0172033015477</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E9" t="n">
-        <v>326.7797482960922</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F9" t="n">
-        <v>180.2451903229772</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>734.5444774681634</v>
       </c>
       <c r="S9" t="n">
-        <v>1734.238298972664</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="T9" t="n">
-        <v>1734.238298972664</v>
+        <v>393.841617006275</v>
       </c>
       <c r="U9" t="n">
-        <v>1506.136709105928</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="V9" t="n">
-        <v>1270.984600874186</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W9" t="n">
-        <v>1270.984600874186</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X9" t="n">
-        <v>1063.133100668653</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y9" t="n">
-        <v>855.3728019036989</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>338.6408822103593</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C10" t="n">
-        <v>338.1722376183965</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1722376183965</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360034</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1619.798686923957</v>
+        <v>1942.56751757296</v>
       </c>
       <c r="C11" t="n">
-        <v>1250.836169983545</v>
+        <v>1942.56751757296</v>
       </c>
       <c r="D11" t="n">
-        <v>892.5704713767946</v>
+        <v>1584.301818966209</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>1198.513566367965</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>787.5276615783573</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>372.4552114233538</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5071,22 +5071,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267229</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923658</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653544</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X11" t="n">
-        <v>1808.800296392464</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="Y11" t="n">
-        <v>1619.798686923957</v>
+        <v>2329.167357637081</v>
       </c>
     </row>
     <row r="12">
@@ -5096,70 +5096,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C13" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
         <v>66.51211643218342</v>
@@ -5199,52 +5199,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962284</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T13" t="n">
-        <v>699.1203903877106</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="U13" t="n">
-        <v>699.1203903877106</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="V13" t="n">
-        <v>680.3679798527295</v>
+        <v>444.4359021818246</v>
       </c>
       <c r="W13" t="n">
-        <v>680.3679798527295</v>
+        <v>155.018732144864</v>
       </c>
       <c r="X13" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y13" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1844.338003964587</v>
+        <v>1639.433183287319</v>
       </c>
       <c r="C14" t="n">
-        <v>1475.375487024175</v>
+        <v>1270.470666346907</v>
       </c>
       <c r="D14" t="n">
-        <v>1117.109788417424</v>
+        <v>912.2049677401565</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>526.4167151419122</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>115.4308103523046</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>115.4308103523046</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>2994.5429342656</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W14" t="n">
-        <v>2994.5429342656</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X14" t="n">
-        <v>2621.07717600452</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y14" t="n">
-        <v>2230.937844028708</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>699.1203903877106</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="C16" t="n">
-        <v>699.1203903877106</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="D16" t="n">
-        <v>549.0037509753748</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E16" t="n">
-        <v>401.0906573929817</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F16" t="n">
-        <v>254.2007098950714</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G16" t="n">
-        <v>86.49787326979032</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>86.49787326979032</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962284</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T16" t="n">
-        <v>699.1203903877106</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="U16" t="n">
-        <v>699.1203903877106</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="V16" t="n">
-        <v>699.1203903877106</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="W16" t="n">
-        <v>699.1203903877106</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="X16" t="n">
-        <v>699.1203903877106</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="Y16" t="n">
-        <v>699.1203903877106</v>
+        <v>528.3452334219998</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1491.569348694472</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C17" t="n">
-        <v>1491.569348694472</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D17" t="n">
-        <v>1491.569348694472</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>1105.781096096228</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>694.7951913066204</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>279.7227411516168</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912081</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810547</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5548,19 +5548,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>3160.418091878048</v>
       </c>
       <c r="V17" t="n">
-        <v>2994.5429342656</v>
+        <v>3160.418091878048</v>
       </c>
       <c r="W17" t="n">
-        <v>2641.774278995485</v>
+        <v>2807.649436607934</v>
       </c>
       <c r="X17" t="n">
-        <v>2268.308520734406</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y17" t="n">
-        <v>1878.169188758594</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387309</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>631.4698357812242</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C19" t="n">
-        <v>462.5336528533173</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D19" t="n">
-        <v>361.3151575124869</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E19" t="n">
         <v>213.4020639300938</v>
@@ -5673,52 +5673,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962287</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K19" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W19" t="n">
-        <v>631.4698357812242</v>
+        <v>631.4698357812249</v>
       </c>
       <c r="X19" t="n">
-        <v>631.4698357812242</v>
+        <v>631.4698357812249</v>
       </c>
       <c r="Y19" t="n">
-        <v>631.4698357812242</v>
+        <v>631.4698357812249</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2005.586939522201</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C20" t="n">
-        <v>1636.624422581789</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5782,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3135.094766832249</v>
+        <v>3139.571519064252</v>
       </c>
       <c r="U20" t="n">
-        <v>3135.094766832249</v>
+        <v>3139.571519064252</v>
       </c>
       <c r="V20" t="n">
-        <v>3135.094766832249</v>
+        <v>3139.571519064252</v>
       </c>
       <c r="W20" t="n">
-        <v>2782.326111562134</v>
+        <v>2786.802863794138</v>
       </c>
       <c r="X20" t="n">
-        <v>2782.326111562134</v>
+        <v>2413.337105533058</v>
       </c>
       <c r="Y20" t="n">
-        <v>2392.186779586323</v>
+        <v>2023.197773557246</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
         <v>458.9189605332749</v>
@@ -5822,10 +5822,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5834,16 +5834,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C22" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D22" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E22" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218342</v>
@@ -5910,52 +5910,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S22" t="n">
-        <v>729.201121645011</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T22" t="n">
-        <v>710.6664589680076</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U22" t="n">
-        <v>710.6664589680076</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="V22" t="n">
-        <v>710.6664589680076</v>
+        <v>384.6861761966524</v>
       </c>
       <c r="W22" t="n">
-        <v>710.6664589680076</v>
+        <v>384.6861761966524</v>
       </c>
       <c r="X22" t="n">
-        <v>710.6664589680076</v>
+        <v>156.696625298635</v>
       </c>
       <c r="Y22" t="n">
-        <v>710.6664589680076</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1594.601034732593</v>
+        <v>1959.241091287691</v>
       </c>
       <c r="C23" t="n">
-        <v>1225.638517792182</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D23" t="n">
-        <v>867.3728191854311</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E23" t="n">
-        <v>481.5845665871869</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6013,28 +6013,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450753</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180639</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X23" t="n">
-        <v>2071.975386180639</v>
+        <v>2345.840931351812</v>
       </c>
       <c r="Y23" t="n">
-        <v>1981.200874796715</v>
+        <v>2345.840931351812</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>342.3669689068678</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C25" t="n">
-        <v>342.3669689068678</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D25" t="n">
-        <v>342.3669689068678</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E25" t="n">
-        <v>342.3669689068678</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596505</v>
@@ -6171,28 +6171,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S25" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T25" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U25" t="n">
-        <v>631.7841389438285</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V25" t="n">
-        <v>631.7841389438285</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W25" t="n">
-        <v>342.3669689068678</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="X25" t="n">
-        <v>342.3669689068678</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="Y25" t="n">
-        <v>342.3669689068678</v>
+        <v>831.0565485757129</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1261.532988317206</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C26" t="n">
-        <v>892.5704713767946</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D26" t="n">
-        <v>892.5704713767946</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
         <v>892.5704713767946</v>
@@ -6217,19 +6217,19 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6250,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>3095.569461231905</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V26" t="n">
-        <v>2764.506573888334</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W26" t="n">
-        <v>2411.73791861822</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X26" t="n">
-        <v>2038.27216035714</v>
+        <v>2023.224262645911</v>
       </c>
       <c r="Y26" t="n">
-        <v>1648.132828381328</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X27" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>700.0944266746548</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C28" t="n">
-        <v>531.1582437467479</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D28" t="n">
-        <v>381.0416043344121</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E28" t="n">
-        <v>233.128510752019</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
-        <v>233.128510752019</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
@@ -6417,19 +6417,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>920.8870058181849</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="V28" t="n">
-        <v>920.8870058181849</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="W28" t="n">
-        <v>920.8870058181849</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="X28" t="n">
-        <v>920.8870058181849</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y28" t="n">
-        <v>700.0944266746548</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2014.778044008242</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C29" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D29" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
         <v>108.5090151927147</v>
@@ -6463,7 +6463,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810553</v>
@@ -6493,22 +6493,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U29" t="n">
-        <v>3072.075344883006</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V29" t="n">
-        <v>2741.012457539436</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W29" t="n">
-        <v>2388.243802269321</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="X29" t="n">
-        <v>2014.778044008242</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y29" t="n">
-        <v>2014.778044008242</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="30">
@@ -6545,10 +6545,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>518.445961844415</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C31" t="n">
-        <v>349.5097789165081</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D31" t="n">
-        <v>199.3931395041724</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E31" t="n">
-        <v>199.3931395041724</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F31" t="n">
-        <v>199.3931395041724</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
         <v>66.5121164321834</v>
@@ -6651,22 +6651,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U31" t="n">
-        <v>920.8870058181849</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V31" t="n">
-        <v>920.8870058181849</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W31" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X31" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y31" t="n">
-        <v>700.0944266746548</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1529.83239115168</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C32" t="n">
-        <v>1160.869874211268</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D32" t="n">
-        <v>1160.869874211268</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E32" t="n">
-        <v>775.0816216130238</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>364.0957168234162</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6727,25 +6727,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3264.630685522427</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3264.630685522427</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3011.100208796264</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V32" t="n">
-        <v>2680.037321452693</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W32" t="n">
-        <v>2680.037321452693</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X32" t="n">
-        <v>2306.571563191613</v>
+        <v>2065.221161406442</v>
       </c>
       <c r="Y32" t="n">
-        <v>1916.432231215801</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="33">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.5121164321834</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="C34" t="n">
-        <v>66.5121164321834</v>
+        <v>462.5336528533173</v>
       </c>
       <c r="D34" t="n">
-        <v>66.5121164321834</v>
+        <v>462.5336528533173</v>
       </c>
       <c r="E34" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
         <v>66.5121164321834</v>
@@ -6885,25 +6885,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>899.7166415493873</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>899.7166415493873</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>610.6137746750309</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V34" t="n">
-        <v>355.929286469144</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W34" t="n">
-        <v>66.5121164321834</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X34" t="n">
-        <v>66.5121164321834</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y34" t="n">
-        <v>66.5121164321834</v>
+        <v>631.4698357812242</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1303.529887077737</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C35" t="n">
-        <v>934.5673701373257</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D35" t="n">
-        <v>934.5673701373257</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E35" t="n">
-        <v>934.5673701373257</v>
+        <v>709.615767892637</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>298.6298631030294</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296686</v>
@@ -6961,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>2961.784676410101</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>2630.721789066531</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W35" t="n">
-        <v>2277.953133796416</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X35" t="n">
-        <v>1904.487375535336</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y35" t="n">
-        <v>1690.129727141859</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>518.445961844415</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C37" t="n">
-        <v>349.5097789165081</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D37" t="n">
-        <v>349.5097789165081</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E37" t="n">
-        <v>201.596685334115</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>201.596685334115</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
         <v>332.3555681596505</v>
@@ -7125,22 +7125,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U37" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V37" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W37" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X37" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="Y37" t="n">
-        <v>700.0944266746548</v>
+        <v>699.1203903877109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1303.529887077737</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C38" t="n">
-        <v>934.5673701373257</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D38" t="n">
-        <v>934.5673701373257</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E38" t="n">
-        <v>934.5673701373257</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F38" t="n">
         <v>523.5814653477182</v>
@@ -7171,16 +7171,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
@@ -7198,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3137.566359992436</v>
+        <v>3139.571519064252</v>
       </c>
       <c r="V38" t="n">
-        <v>2806.503472648865</v>
+        <v>3139.571519064252</v>
       </c>
       <c r="W38" t="n">
-        <v>2453.73481737875</v>
+        <v>2786.802863794138</v>
       </c>
       <c r="X38" t="n">
-        <v>2080.269059117671</v>
+        <v>2413.337105533058</v>
       </c>
       <c r="Y38" t="n">
-        <v>1690.129727141859</v>
+        <v>2023.197773557246</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C40" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D40" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E40" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L40" t="n">
         <v>332.3555681596505</v>
@@ -7359,25 +7359,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>866.7987687739744</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>645.0321533435005</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U40" t="n">
-        <v>355.929286469144</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V40" t="n">
-        <v>355.929286469144</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W40" t="n">
-        <v>66.5121164321834</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X40" t="n">
-        <v>66.5121164321834</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.5121164321834</v>
+        <v>478.3278112441808</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1921.870414581995</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C41" t="n">
-        <v>1552.907897641583</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D41" t="n">
-        <v>1194.642199034832</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>808.8539464365881</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>397.8680416469805</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
         <v>108.5090151927147</v>
@@ -7408,31 +7408,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7444,19 +7444,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3072.075344883008</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>3072.075344883008</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W41" t="n">
-        <v>3072.075344883008</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X41" t="n">
-        <v>2698.609586621928</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y41" t="n">
-        <v>2308.470254646116</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="42">
@@ -7481,16 +7481,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K43" t="n">
         <v>176.6457242372933</v>
@@ -7578,43 +7578,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U43" t="n">
-        <v>631.7841389438286</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V43" t="n">
-        <v>377.0996507379417</v>
+        <v>155.3330353074676</v>
       </c>
       <c r="W43" t="n">
-        <v>87.6824807009811</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1384.829779622646</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C44" t="n">
-        <v>1384.829779622646</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D44" t="n">
-        <v>1026.564081015895</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>640.7758284176512</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>229.7899236280436</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>229.7899236280436</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.09759726723</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.034709923659</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W44" t="n">
-        <v>2535.034709923659</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X44" t="n">
-        <v>2161.568951662579</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y44" t="n">
-        <v>1771.429619686768</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.68248070098156</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C46" t="n">
-        <v>87.68248070098156</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D46" t="n">
-        <v>87.68248070098156</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E46" t="n">
-        <v>87.68248070098156</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K46" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O46" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S46" t="n">
-        <v>920.8870058181855</v>
+        <v>784.9358286462807</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181855</v>
+        <v>784.9358286462807</v>
       </c>
       <c r="U46" t="n">
-        <v>631.784138943829</v>
+        <v>784.9358286462807</v>
       </c>
       <c r="V46" t="n">
-        <v>377.0996507379422</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="W46" t="n">
-        <v>87.68248070098156</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="X46" t="n">
-        <v>87.68248070098156</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.68248070098156</v>
+        <v>530.2513404403938</v>
       </c>
     </row>
   </sheetData>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543631</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>216.7578328961673</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22600,19 +22600,19 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>48.27134388011225</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.6436733987104</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121492</v>
+        <v>182.2055135121491</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>1.360646473772732</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22685,16 +22685,16 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>45.27499998310535</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>64.16939599459968</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715761</v>
+        <v>18.24739803715755</v>
       </c>
       <c r="Y3" t="n">
-        <v>40.51015860120992</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22728,10 +22728,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22749,7 +22749,7 @@
         <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -22758,7 +22758,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>171.5037272356657</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>234.3070520821566</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22795,10 +22795,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>219.3504585753915</v>
+        <v>219.3504585753914</v>
       </c>
       <c r="G5" t="n">
-        <v>225.5722460637381</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H5" t="n">
         <v>316.8938261062223</v>
@@ -22843,16 +22843,16 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>184.0684315413184</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>221.065401479959</v>
+        <v>198.7123514897336</v>
       </c>
     </row>
     <row r="6">
@@ -22862,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1.360646473772704</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22877,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>97.44391423786689</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>48.77881175550657</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J6" t="n">
         <v>15.37922103265839</v>
@@ -22916,22 +22916,22 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681242</v>
       </c>
       <c r="U6" t="n">
-        <v>38.338181243771</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>45.27499998310535</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945996</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098435</v>
       </c>
     </row>
     <row r="7">
@@ -22965,7 +22965,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>23.43375830553084</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K7" t="n">
         <v>14.10430989402852</v>
@@ -22986,13 +22986,13 @@
         <v>18.10760906709386</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.343082173845801</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R7" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>154.5643095410618</v>
       </c>
       <c r="T7" t="n">
         <v>223.7196734901001</v>
@@ -23001,7 +23001,7 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
-        <v>199.9216970693936</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23023,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>200.1003545949131</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>302.21567079274</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>63.64367339871046</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>121.0247055866921</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>57.03060314331834</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>7.884010625681384</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23178,34 +23178,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>166.7828629525847</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>171.5037272356657</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>33.3010301189878</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>199.1263452822312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23475,13 +23475,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>233.5727568941967</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>138.0881058334834</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>159.6364462020383</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>287.7551871793264</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>76.56652114060729</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>49.51724795604017</v>
       </c>
     </row>
     <row r="17">
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>83.52924591508136</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,10 +23788,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>87.45931952509022</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>81.80718016615766</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>48.40916263079023</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>124.4997876986436</v>
+        <v>128.9317724083266</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>201.1996332259359</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>129.3019895743077</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>87.45931952509119</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>296.3711723859689</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>30.65029714618373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>38.35055233202192</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -24420,13 +24420,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,13 +24445,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>23.25917518540936</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>117.5495182394684</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.075577882391002</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24657,7 +24657,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>227.9299826817494</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>327.0855007190661</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,10 +24742,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>249.3984474563771</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>34.47359541775913</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24891,22 +24891,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.82237706230064</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>159.1264480123947</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>65.81949787160606</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,16 +25125,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>168.8103647053323</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25159,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>181.1251564493159</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>174.023866746511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>161.2670937523057</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>32.29208504611594</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25365,7 +25365,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25396,13 +25396,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>64.83610495833477</v>
+        <v>176.0089742276084</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>83.58129860001937</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25599,25 +25599,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>136.2216706576735</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>124.4562894637303</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25684,10 +25684,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>201.2133759749636</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25839,7 +25839,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>198.5902886500597</v>
       </c>
       <c r="X43" t="n">
-        <v>204.7509947629275</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>174.5396650363448</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>331.8898480104177</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>124.4623873968211</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>144.109512601304</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>429748.4511149209</v>
+        <v>424931.0936061952</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>429909.6712438379</v>
+        <v>424931.0936061953</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>658545.8706526514</v>
+        <v>424931.0936061951</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>839054.4922903114</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159596.8143332538</v>
+        <v>158307.6623238765</v>
       </c>
       <c r="C2" t="n">
-        <v>159639.9577480344</v>
+        <v>158307.6623238765</v>
       </c>
       <c r="D2" t="n">
-        <v>245340.6184784387</v>
+        <v>158307.6623238765</v>
       </c>
       <c r="E2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003121</v>
       </c>
       <c r="F2" t="n">
         <v>312588.9285003117</v>
       </c>
       <c r="G2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.928500312</v>
       </c>
       <c r="H2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.9285003119</v>
       </c>
       <c r="I2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="J2" t="n">
         <v>312588.9285003119</v>
       </c>
       <c r="K2" t="n">
+        <v>312588.9285003116</v>
+      </c>
+      <c r="L2" t="n">
         <v>312588.9285003117</v>
       </c>
-      <c r="L2" t="n">
-        <v>312588.9285003116</v>
-      </c>
       <c r="M2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="N2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="O2" t="n">
         <v>312588.9285003118</v>
       </c>
       <c r="P2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.9285003119</v>
       </c>
     </row>
     <row r="3">
@@ -26371,34 +26371,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>371558.524948766</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.7457669098</v>
+        <v>627134.6436336678</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854456</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89743.37813127029</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608617</v>
+        <v>160456.4418678775</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1494.802233206374</v>
+        <v>137.800118072334</v>
       </c>
       <c r="C4" t="n">
-        <v>1540.216354028032</v>
+        <v>137.800118072334</v>
       </c>
       <c r="D4" t="n">
-        <v>384.3219252469136</v>
+        <v>137.800118072334</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061423</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="F4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="G4" t="n">
+        <v>584.6469890061232</v>
+      </c>
+      <c r="H4" t="n">
         <v>584.6469890061231</v>
-      </c>
-      <c r="H4" t="n">
-        <v>584.646989006123</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061231</v>
@@ -26450,7 +26450,7 @@
         <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
         <v>584.6469890061231</v>
@@ -26459,7 +26459,7 @@
         <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26472,28 +26472,28 @@
         <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
+        <v>56985.80041161358</v>
+      </c>
+      <c r="D5" t="n">
         <v>56985.80041161357</v>
       </c>
-      <c r="D5" t="n">
-        <v>85199.08185587224</v>
-      </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="J5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="J5" t="n">
-        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
         <v>74306.34056139328</v>
@@ -26502,16 +26502,16 @@
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-502366.9027456894</v>
+        <v>-491392.2469285582</v>
       </c>
       <c r="C6" t="n">
-        <v>88989.99977515597</v>
+        <v>99964.65559228715</v>
       </c>
       <c r="D6" t="n">
-        <v>-219414.6903676095</v>
+        <v>99964.65559228715</v>
       </c>
       <c r="E6" t="n">
-        <v>-42406.80019516717</v>
+        <v>-389844.1022215721</v>
       </c>
       <c r="F6" t="n">
-        <v>233623.9455717427</v>
+        <v>237290.5414120953</v>
       </c>
       <c r="G6" t="n">
-        <v>233623.9455717426</v>
+        <v>237290.5414120956</v>
       </c>
       <c r="H6" t="n">
-        <v>233623.9455717429</v>
+        <v>237290.5414120957</v>
       </c>
       <c r="I6" t="n">
-        <v>233623.9455717426</v>
+        <v>237290.5414120953</v>
       </c>
       <c r="J6" t="n">
-        <v>184559.0008431982</v>
+        <v>188225.5966835508</v>
       </c>
       <c r="K6" t="n">
-        <v>233623.9455717426</v>
+        <v>237290.5414120952</v>
       </c>
       <c r="L6" t="n">
-        <v>143880.5674404723</v>
+        <v>237290.5414120953</v>
       </c>
       <c r="M6" t="n">
-        <v>161532.5929556567</v>
+        <v>76834.09954421784</v>
       </c>
       <c r="N6" t="n">
-        <v>233623.9455717427</v>
+        <v>237290.5414120954</v>
       </c>
       <c r="O6" t="n">
-        <v>233623.9455717427</v>
+        <v>237290.5414120954</v>
       </c>
       <c r="P6" t="n">
-        <v>233623.9455717426</v>
+        <v>237290.5414120955</v>
       </c>
     </row>
   </sheetData>
@@ -26743,16 +26743,16 @@
         <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26792,28 +26792,28 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
+        <v>187.52558716632</v>
+      </c>
+      <c r="D4" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="D4" t="n">
-        <v>542.1149567261632</v>
-      </c>
       <c r="E4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="F4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022925</v>
@@ -26822,16 +26822,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26965,22 +26965,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>305.2407236247795</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556139</v>
+        <v>541.306759680394</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>354.5893695598432</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761294</v>
+        <v>643.8758682359729</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598432</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761294</v>
+        <v>643.8758682359731</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598432</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761294</v>
+        <v>643.8758682359729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356356</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953981</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32800,7 +32800,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33678,7 +33678,7 @@
         <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781681</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
         <v>275.1987363563569</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222388</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687118</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M19" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O22" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037185</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127261</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K46" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M46" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
